--- a/rhla_analysis/rhla1_3_zipf_result/k0.xlsx
+++ b/rhla_analysis/rhla1_3_zipf_result/k0.xlsx
@@ -457,7 +457,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.01015089008225132</v>
+        <v>0.01015089008225143</v>
       </c>
       <c r="B2" t="n">
         <v>0.1462538575088345</v>
@@ -466,12 +466,12 @@
         <v>0.002983802216538789</v>
       </c>
       <c r="D2" t="n">
-        <v>14.4079835683136</v>
+        <v>14.40798356831345</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.1528399674061431</v>
+        <v>0.1528399674061436</v>
       </c>
       <c r="B3" t="n">
         <v>2.097666300906287</v>
@@ -480,12 +480,12 @@
         <v>0.01662404092071611</v>
       </c>
       <c r="D3" t="n">
-        <v>13.724592699841</v>
+        <v>13.72459269984094</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.02012784153908003</v>
+        <v>0.02012784153907986</v>
       </c>
       <c r="B4" t="n">
         <v>0.5746369416048198</v>
@@ -494,12 +494,12 @@
         <v>0.002557544757033248</v>
       </c>
       <c r="D4" t="n">
-        <v>28.54935739081163</v>
+        <v>28.54935739081187</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.0533724700383872</v>
+        <v>0.05337247003838717</v>
       </c>
       <c r="B5" t="n">
         <v>0.5844646066456117</v>
@@ -513,35 +513,35 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.04468210438862794</v>
+        <v>0.04468210438862772</v>
       </c>
       <c r="B6" t="n">
-        <v>0.3977469899541974</v>
+        <v>0.3977469899541972</v>
       </c>
       <c r="C6" t="n">
         <v>0.009803921568627451</v>
       </c>
       <c r="D6" t="n">
-        <v>8.901706743593486</v>
+        <v>8.901706743593525</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5.094707185812092</v>
+        <v>5.094707185812072</v>
       </c>
       <c r="B7" t="n">
-        <v>45.64612629681963</v>
+        <v>45.64612629681965</v>
       </c>
       <c r="C7" t="n">
         <v>0.002983802216538789</v>
       </c>
       <c r="D7" t="n">
-        <v>8.959519091487035</v>
+        <v>8.959519091487074</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.06393175878598784</v>
+        <v>0.06393175878598752</v>
       </c>
       <c r="B8" t="n">
         <v>1.745761772636593</v>
@@ -550,12 +550,12 @@
         <v>0.01065643648763853</v>
       </c>
       <c r="D8" t="n">
-        <v>27.30664392450936</v>
+        <v>27.3066439245095</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.1453995362219379</v>
+        <v>0.1453995362219393</v>
       </c>
       <c r="B9" t="n">
         <v>2.437368403434723</v>
@@ -564,26 +564,26 @@
         <v>0.04816709292412617</v>
       </c>
       <c r="D9" t="n">
-        <v>16.76324744058553</v>
+        <v>16.76324744058537</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.1362262685884152</v>
+        <v>0.1362262685884162</v>
       </c>
       <c r="B10" t="n">
-        <v>1.351943157262893</v>
+        <v>1.351943157262892</v>
       </c>
       <c r="C10" t="n">
         <v>0.01705029838022165</v>
       </c>
       <c r="D10" t="n">
-        <v>9.924247146103383</v>
+        <v>9.924247146103312</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.01031952315614555</v>
+        <v>0.01031952315614551</v>
       </c>
       <c r="B11" t="n">
         <v>0.180801305496119</v>
@@ -592,7 +592,7 @@
         <v>0.005115089514066497</v>
       </c>
       <c r="D11" t="n">
-        <v>17.52031588673233</v>
+        <v>17.52031588673239</v>
       </c>
     </row>
   </sheetData>
